--- a/apps/templates/xlsx/bnp.xlsx
+++ b/apps/templates/xlsx/bnp.xlsx
@@ -253,13 +253,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -279,6 +279,10 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,7 +336,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -341,7 +345,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3214285714286"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1122448979592"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0102040816327"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.0867346938776"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.4438775510204"/>
@@ -607,7 +611,7 @@
       <c r="HP1" s="2"/>
       <c r="HQ1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="7" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -840,286 +844,286 @@
       <c r="HP2" s="2"/>
       <c r="HQ2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" s="7" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
-      <c r="BM3" s="7"/>
-      <c r="BN3" s="7"/>
-      <c r="BO3" s="7"/>
-      <c r="BP3" s="7"/>
-      <c r="BQ3" s="7"/>
-      <c r="BR3" s="7"/>
-      <c r="BS3" s="7"/>
-      <c r="BT3" s="7"/>
-      <c r="BU3" s="7"/>
-      <c r="BV3" s="7"/>
-      <c r="BW3" s="7"/>
-      <c r="BX3" s="7"/>
-      <c r="BY3" s="7"/>
-      <c r="BZ3" s="7"/>
-      <c r="CA3" s="7"/>
-      <c r="CB3" s="7"/>
-      <c r="CC3" s="7"/>
-      <c r="CD3" s="7"/>
-      <c r="CE3" s="7"/>
-      <c r="CF3" s="7"/>
-      <c r="CG3" s="7"/>
-      <c r="CH3" s="7"/>
-      <c r="CI3" s="7"/>
-      <c r="CJ3" s="7"/>
-      <c r="CK3" s="7"/>
-      <c r="CL3" s="7"/>
-      <c r="CM3" s="7"/>
-      <c r="CN3" s="7"/>
-      <c r="CO3" s="7"/>
-      <c r="CP3" s="7"/>
-      <c r="CQ3" s="7"/>
-      <c r="CR3" s="7"/>
-      <c r="CS3" s="7"/>
-      <c r="CT3" s="7"/>
-      <c r="CU3" s="7"/>
-      <c r="CV3" s="7"/>
-      <c r="CW3" s="7"/>
-      <c r="CX3" s="7"/>
-      <c r="CY3" s="7"/>
-      <c r="CZ3" s="7"/>
-      <c r="DA3" s="7"/>
-      <c r="DB3" s="7"/>
-      <c r="DC3" s="7"/>
-      <c r="DD3" s="7"/>
-      <c r="DE3" s="7"/>
-      <c r="DF3" s="7"/>
-      <c r="DG3" s="7"/>
-      <c r="DH3" s="7"/>
-      <c r="DI3" s="7"/>
-      <c r="DJ3" s="7"/>
-      <c r="DK3" s="7"/>
-      <c r="DL3" s="7"/>
-      <c r="DM3" s="7"/>
-      <c r="DN3" s="7"/>
-      <c r="DO3" s="7"/>
-      <c r="DP3" s="7"/>
-      <c r="DQ3" s="7"/>
-      <c r="DR3" s="7"/>
-      <c r="DS3" s="7"/>
-      <c r="DT3" s="7"/>
-      <c r="DU3" s="7"/>
-      <c r="DV3" s="7"/>
-      <c r="DW3" s="7"/>
-      <c r="DX3" s="7"/>
-      <c r="DY3" s="7"/>
-      <c r="DZ3" s="7"/>
-      <c r="EA3" s="7"/>
-      <c r="EB3" s="7"/>
-      <c r="EC3" s="7"/>
-      <c r="ED3" s="7"/>
-      <c r="EE3" s="7"/>
-      <c r="EF3" s="7"/>
-      <c r="EG3" s="7"/>
-      <c r="EH3" s="7"/>
-      <c r="EI3" s="7"/>
-      <c r="EJ3" s="7"/>
-      <c r="EK3" s="7"/>
-      <c r="EL3" s="7"/>
-      <c r="EM3" s="7"/>
-      <c r="EN3" s="7"/>
-      <c r="EO3" s="7"/>
-      <c r="EP3" s="7"/>
-      <c r="EQ3" s="7"/>
-      <c r="ER3" s="7"/>
-      <c r="ES3" s="7"/>
-      <c r="ET3" s="7"/>
-      <c r="EU3" s="7"/>
-      <c r="EV3" s="7"/>
-      <c r="EW3" s="7"/>
-      <c r="EX3" s="7"/>
-      <c r="EY3" s="7"/>
-      <c r="EZ3" s="7"/>
-      <c r="FA3" s="7"/>
-      <c r="FB3" s="7"/>
-      <c r="FC3" s="7"/>
-      <c r="FD3" s="7"/>
-      <c r="FE3" s="7"/>
-      <c r="FF3" s="7"/>
-      <c r="FG3" s="7"/>
-      <c r="FH3" s="7"/>
-      <c r="FI3" s="7"/>
-      <c r="FJ3" s="7"/>
-      <c r="FK3" s="7"/>
-      <c r="FL3" s="7"/>
-      <c r="FM3" s="7"/>
-      <c r="FN3" s="7"/>
-      <c r="FO3" s="7"/>
-      <c r="FP3" s="7"/>
-      <c r="FQ3" s="7"/>
-      <c r="FR3" s="7"/>
-      <c r="FS3" s="7"/>
-      <c r="FT3" s="7"/>
-      <c r="FU3" s="7"/>
-      <c r="FV3" s="7"/>
-      <c r="FW3" s="7"/>
-      <c r="FX3" s="7"/>
-      <c r="FY3" s="7"/>
-      <c r="FZ3" s="7"/>
-      <c r="GA3" s="7"/>
-      <c r="GB3" s="7"/>
-      <c r="GC3" s="7"/>
-      <c r="GD3" s="7"/>
-      <c r="GE3" s="7"/>
-      <c r="GF3" s="7"/>
-      <c r="GG3" s="7"/>
-      <c r="GH3" s="7"/>
-      <c r="GI3" s="7"/>
-      <c r="GJ3" s="7"/>
-      <c r="GK3" s="7"/>
-      <c r="GL3" s="7"/>
-      <c r="GM3" s="7"/>
-      <c r="GN3" s="7"/>
-      <c r="GO3" s="7"/>
-      <c r="GP3" s="7"/>
-      <c r="GQ3" s="7"/>
-      <c r="GR3" s="7"/>
-      <c r="GS3" s="7"/>
-      <c r="GT3" s="7"/>
-      <c r="GU3" s="7"/>
-      <c r="GV3" s="7"/>
-      <c r="GW3" s="7"/>
-      <c r="GX3" s="7"/>
-      <c r="GY3" s="7"/>
-      <c r="GZ3" s="7"/>
-      <c r="HA3" s="7"/>
-      <c r="HB3" s="7"/>
-      <c r="HC3" s="7"/>
-      <c r="HD3" s="7"/>
-      <c r="HE3" s="7"/>
-      <c r="HF3" s="7"/>
-      <c r="HG3" s="7"/>
-      <c r="HH3" s="7"/>
-      <c r="HI3" s="7"/>
-      <c r="HJ3" s="7"/>
-      <c r="HK3" s="7"/>
-      <c r="HL3" s="7"/>
-      <c r="HM3" s="7"/>
-      <c r="HN3" s="7"/>
-      <c r="HO3" s="7"/>
-      <c r="HP3" s="7"/>
-      <c r="HQ3" s="7"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="8"/>
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="8"/>
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="8"/>
+      <c r="CC3" s="8"/>
+      <c r="CD3" s="8"/>
+      <c r="CE3" s="8"/>
+      <c r="CF3" s="8"/>
+      <c r="CG3" s="8"/>
+      <c r="CH3" s="8"/>
+      <c r="CI3" s="8"/>
+      <c r="CJ3" s="8"/>
+      <c r="CK3" s="8"/>
+      <c r="CL3" s="8"/>
+      <c r="CM3" s="8"/>
+      <c r="CN3" s="8"/>
+      <c r="CO3" s="8"/>
+      <c r="CP3" s="8"/>
+      <c r="CQ3" s="8"/>
+      <c r="CR3" s="8"/>
+      <c r="CS3" s="8"/>
+      <c r="CT3" s="8"/>
+      <c r="CU3" s="8"/>
+      <c r="CV3" s="8"/>
+      <c r="CW3" s="8"/>
+      <c r="CX3" s="8"/>
+      <c r="CY3" s="8"/>
+      <c r="CZ3" s="8"/>
+      <c r="DA3" s="8"/>
+      <c r="DB3" s="8"/>
+      <c r="DC3" s="8"/>
+      <c r="DD3" s="8"/>
+      <c r="DE3" s="8"/>
+      <c r="DF3" s="8"/>
+      <c r="DG3" s="8"/>
+      <c r="DH3" s="8"/>
+      <c r="DI3" s="8"/>
+      <c r="DJ3" s="8"/>
+      <c r="DK3" s="8"/>
+      <c r="DL3" s="8"/>
+      <c r="DM3" s="8"/>
+      <c r="DN3" s="8"/>
+      <c r="DO3" s="8"/>
+      <c r="DP3" s="8"/>
+      <c r="DQ3" s="8"/>
+      <c r="DR3" s="8"/>
+      <c r="DS3" s="8"/>
+      <c r="DT3" s="8"/>
+      <c r="DU3" s="8"/>
+      <c r="DV3" s="8"/>
+      <c r="DW3" s="8"/>
+      <c r="DX3" s="8"/>
+      <c r="DY3" s="8"/>
+      <c r="DZ3" s="8"/>
+      <c r="EA3" s="8"/>
+      <c r="EB3" s="8"/>
+      <c r="EC3" s="8"/>
+      <c r="ED3" s="8"/>
+      <c r="EE3" s="8"/>
+      <c r="EF3" s="8"/>
+      <c r="EG3" s="8"/>
+      <c r="EH3" s="8"/>
+      <c r="EI3" s="8"/>
+      <c r="EJ3" s="8"/>
+      <c r="EK3" s="8"/>
+      <c r="EL3" s="8"/>
+      <c r="EM3" s="8"/>
+      <c r="EN3" s="8"/>
+      <c r="EO3" s="8"/>
+      <c r="EP3" s="8"/>
+      <c r="EQ3" s="8"/>
+      <c r="ER3" s="8"/>
+      <c r="ES3" s="8"/>
+      <c r="ET3" s="8"/>
+      <c r="EU3" s="8"/>
+      <c r="EV3" s="8"/>
+      <c r="EW3" s="8"/>
+      <c r="EX3" s="8"/>
+      <c r="EY3" s="8"/>
+      <c r="EZ3" s="8"/>
+      <c r="FA3" s="8"/>
+      <c r="FB3" s="8"/>
+      <c r="FC3" s="8"/>
+      <c r="FD3" s="8"/>
+      <c r="FE3" s="8"/>
+      <c r="FF3" s="8"/>
+      <c r="FG3" s="8"/>
+      <c r="FH3" s="8"/>
+      <c r="FI3" s="8"/>
+      <c r="FJ3" s="8"/>
+      <c r="FK3" s="8"/>
+      <c r="FL3" s="8"/>
+      <c r="FM3" s="8"/>
+      <c r="FN3" s="8"/>
+      <c r="FO3" s="8"/>
+      <c r="FP3" s="8"/>
+      <c r="FQ3" s="8"/>
+      <c r="FR3" s="8"/>
+      <c r="FS3" s="8"/>
+      <c r="FT3" s="8"/>
+      <c r="FU3" s="8"/>
+      <c r="FV3" s="8"/>
+      <c r="FW3" s="8"/>
+      <c r="FX3" s="8"/>
+      <c r="FY3" s="8"/>
+      <c r="FZ3" s="8"/>
+      <c r="GA3" s="8"/>
+      <c r="GB3" s="8"/>
+      <c r="GC3" s="8"/>
+      <c r="GD3" s="8"/>
+      <c r="GE3" s="8"/>
+      <c r="GF3" s="8"/>
+      <c r="GG3" s="8"/>
+      <c r="GH3" s="8"/>
+      <c r="GI3" s="8"/>
+      <c r="GJ3" s="8"/>
+      <c r="GK3" s="8"/>
+      <c r="GL3" s="8"/>
+      <c r="GM3" s="8"/>
+      <c r="GN3" s="8"/>
+      <c r="GO3" s="8"/>
+      <c r="GP3" s="8"/>
+      <c r="GQ3" s="8"/>
+      <c r="GR3" s="8"/>
+      <c r="GS3" s="8"/>
+      <c r="GT3" s="8"/>
+      <c r="GU3" s="8"/>
+      <c r="GV3" s="8"/>
+      <c r="GW3" s="8"/>
+      <c r="GX3" s="8"/>
+      <c r="GY3" s="8"/>
+      <c r="GZ3" s="8"/>
+      <c r="HA3" s="8"/>
+      <c r="HB3" s="8"/>
+      <c r="HC3" s="8"/>
+      <c r="HD3" s="8"/>
+      <c r="HE3" s="8"/>
+      <c r="HF3" s="8"/>
+      <c r="HG3" s="8"/>
+      <c r="HH3" s="8"/>
+      <c r="HI3" s="8"/>
+      <c r="HJ3" s="8"/>
+      <c r="HK3" s="8"/>
+      <c r="HL3" s="8"/>
+      <c r="HM3" s="8"/>
+      <c r="HN3" s="8"/>
+      <c r="HO3" s="8"/>
+      <c r="HP3" s="8"/>
+      <c r="HQ3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="208">
